--- a/uploads/purchases_sample_template.xlsx
+++ b/uploads/purchases_sample_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\100389664\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{977C2071-250E-4FCB-97B4-50B401DADB9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDBE4F67-0089-4565-940E-DBD7BC6ABDDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
   <si>
     <t>name</t>
   </si>
@@ -52,9 +52,6 @@
     <t>سكر أبيض</t>
   </si>
   <si>
-    <t>كجم</t>
-  </si>
-  <si>
     <t>لتر</t>
   </si>
   <si>
@@ -67,16 +64,16 @@
     <t>كيس</t>
   </si>
   <si>
-    <t>محمد علي</t>
-  </si>
-  <si>
-    <t>سعيد حسن</t>
-  </si>
-  <si>
     <t>عهدة</t>
   </si>
   <si>
     <t>كاش</t>
+  </si>
+  <si>
+    <t>كيلو</t>
+  </si>
+  <si>
+    <t>بسام</t>
   </si>
 </sst>
 </file>
@@ -447,7 +444,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -487,19 +484,19 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E2">
         <v>20.5</v>
       </c>
       <c r="F2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -510,19 +507,19 @@
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E3">
         <v>15.75</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -533,19 +530,19 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E4">
         <v>12.25</v>
       </c>
       <c r="F4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/uploads/purchases_sample_template.xlsx
+++ b/uploads/purchases_sample_template.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\100389664\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\duwar_al_saada_dashboard_v5\uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDBE4F67-0089-4565-940E-DBD7BC6ABDDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{690CD74D-17DC-4B72-904F-B686CC9264C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -444,7 +444,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/uploads/purchases_sample_template.xlsx
+++ b/uploads/purchases_sample_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\duwar_al_saada_dashboard_v5\uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{690CD74D-17DC-4B72-904F-B686CC9264C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8B9C32A-A761-4F1C-8996-8D23C2B6B963}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>name</t>
   </si>
@@ -31,18 +31,9 @@
     <t>unit</t>
   </si>
   <si>
-    <t>package</t>
-  </si>
-  <si>
     <t>price</t>
   </si>
   <si>
-    <t>payer_name</t>
-  </si>
-  <si>
-    <t>payment_source</t>
-  </si>
-  <si>
     <t>رز بسمتي</t>
   </si>
   <si>
@@ -64,16 +55,16 @@
     <t>كيس</t>
   </si>
   <si>
-    <t>عهدة</t>
-  </si>
-  <si>
-    <t>كاش</t>
-  </si>
-  <si>
     <t>كيلو</t>
   </si>
   <si>
-    <t>بسام</t>
+    <t>unit_type</t>
+  </si>
+  <si>
+    <t>unit_quantity</t>
+  </si>
+  <si>
+    <t>عدد</t>
   </si>
 </sst>
 </file>
@@ -444,11 +435,13 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="3" max="4" width="16.796875" customWidth="1"/>
+    <col min="5" max="5" width="14.796875" customWidth="1"/>
     <col min="6" max="6" width="17.5" customWidth="1"/>
     <col min="7" max="7" width="26.8984375" customWidth="1"/>
   </cols>
@@ -461,88 +454,77 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B2">
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E2">
         <v>20.5</v>
       </c>
-      <c r="F2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" t="s">
-        <v>14</v>
+      <c r="F2">
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B3">
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E3">
         <v>15.75</v>
       </c>
-      <c r="F3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
+      <c r="F3">
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B4">
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E4">
         <v>12.25</v>
       </c>
-      <c r="F4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" t="s">
-        <v>14</v>
+      <c r="F4">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
